--- a/public/preprocessing/@Pak_JK.xlsx
+++ b/public/preprocessing/@Pak_JK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22601</v>
+        <v>30843</v>
       </c>
       <c r="C2" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['ke', 'adek', 'danhur']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['ade', 'danhur']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ade', 'danhur']</t>
+          <t>['adek', 'danhur']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['adek', 'danhur']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22602</v>
+        <v>30844</v>
       </c>
       <c r="C3" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jokowi', 'bersama', 'ibu', 'iriana', 'tengok', 'cucu', 'pria', 'ke', 'pak', 'jika', 'dari', 'pasangan', 'marah', 'lautade', 'jika', 'kehadiran', 'pak', 'jokowi', 'ber']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['jokowi', 'iriana', 'tengok', 'cucu', 'pria', 'jk', 'pasangan', 'marah', 'lautade', 'jk', 'kehadiran', 'jokowi', 'ber']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['jokowi', 'iriana', 'tengok', 'cucu', 'pria', 'jk', 'pasang', 'marah', 'lautade', 'jk', 'hadir', 'jokowi', 'ber']</t>
+          <t>['jokowi', 'iriana', 'tengok', 'cucu', 'pria', 'pasangan', 'marah', 'lautade', 'kehadiran', 'jokowi', 'ber']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['jokowi', 'iriana', 'tengok', 'cucu', 'pria', 'pasang', 'marah', 'lautade', 'hadir', 'jokowi', 'ber']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22603</v>
+        <v>30845</v>
       </c>
       <c r="C4" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'memimpin', 'rapat', 'di', 'markas', 'yang', 'dihadiri', 'icrc', 'untuk', 'bantuan', 'tsunami', 'selat', 'sunda']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['jk', 'memimpin', 'rapat', 'markas', 'dihadiri', 'icrc', 'bantuan', 'tsunami', 'selat', 'sunda']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['jk', 'pimpin', 'rapat', 'markas', 'hadir', 'icrc', 'bantu', 'tsunami', 'selat', 'sunda']</t>
+          <t>['memimpin', 'rapat', 'markas', 'dihadiri', 'icrc', 'bantuan', 'tsunami', 'selat', 'sunda']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['pimpin', 'rapat', 'markas', 'hadir', 'icrc', 'bantu', 'tsunami', 'selat', 'sunda']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22604</v>
+        <v>30846</v>
       </c>
       <c r="C5" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rt', 'ibu', 'mufidah', 'jika', 'mempersilahkan', 'pak', 'dan', 'jika', 'untuk', 'santap', 'siang', 'di', 'kediaman', 'pribadinya', 'jalan', 'haji', 'bau', 'makassa']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['mufidah', 'jk', 'mempersilahkan', 'jk', 'santap', 'siang', 'kediaman', 'pribadinya', 'jl', 'haji', 'bau', 'makassa']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['mufidah', 'jk', 'silah', 'jk', 'santap', 'siang', 'diam', 'pribadi', 'jl', 'haji', 'bau', 'makassa']</t>
+          <t>['mufidah', 'mempersilahkan', 'santap', 'siang', 'kediaman', 'pribadinya', 'jalan', 'haji', 'bau', 'makassa']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['mufidah', 'silah', 'santap', 'siang', 'diam', 'pribadi', 'jalan', 'haji', 'bau', 'makassa']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22605</v>
+        <v>30847</v>
       </c>
       <c r="C6" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'bertemu', 'putra', 'mahkota', 'kerajaan', 'arab', 'saudi', 'mohammed', 'bin', 'salman', 'di', 'sela', 'konferensi, tingkat, tinggi', 'buenos', 'aires', 'argentina', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['jk', 'bertemu', 'putra', 'mahkota', 'kerajaan', 'arab', 'saudi', 'mohammed', 'bin', 'salman', 'ktt', 'buenos', 'aires', 'argentina', 'https']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['jk', 'temu', 'putra', 'mahkota', 'raja', 'arab', 'saudi', 'mohammed', 'bin', 'salman', 'ktt', 'buenos', 'aires', 'argentina', 'https']</t>
+          <t>['bertemu', 'putra', 'mahkota', 'kerajaan', 'arab', 'saudi', 'mohammed', 'bin', 'salman', 'konferensi, tingkat, tinggi', 'buenos', 'aires', 'argentina', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['temu', 'putra', 'mahkota', 'raja', 'arab', 'saudi', 'mohammed', 'bin', 'salman', 'konferensi tingkat tinggi', 'buenos', 'aires', 'argentina', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22606</v>
+        <v>30848</v>
       </c>
       <c r="C7" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'yang', 'dalam', 'atas', 'musibah', 'jatuhnya', 'doa', 'terbaik', 'untuk', 'para']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'musibah', 'jatuhnya', 'doa', 'terbaik']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'duka', 'cita', 'musibah', 'jatuh', 'doa', 'baik']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22607</v>
+        <v>30849</v>
       </c>
       <c r="C8" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['rt', 'pakjk', 'bersama', 'yuri', 'oktavian', 'thamrin', 'duta, besar', 'ri', 'untuk', 'belgia', 'sedang', 'mendiskusikan', 'sebuah', 'buku', 'di', 'salah', 'satu', 'grei', 'buku', 'ba']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['pakjk', 'yuri', 'oktavian', 'thamrin', 'dubes', 'ri', 'belgia', 'mendiskusikan', 'buku', 'salah', 'grei', 'buku', 'ba']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['pakjk', 'yuri', 'oktavian', 'thamrin', 'dubes', 'ri', 'belgia', 'diskusi', 'buku', 'salah', 'grei', 'buku', 'ba']</t>
+          <t>['pakjk', 'yuri', 'oktavian', 'thamrin', 'duta, besar', 'ri', 'belgia', 'mendiskusikan', 'buku', 'salah', 'grei', 'buku', 'ba']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['pakjk', 'yuri', 'oktavian', 'thamrin', 'duta besar', 'ri', 'belgia', 'diskusi', 'buku', 'salah', 'grei', 'buku', 'ba']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22608</v>
+        <v>30850</v>
       </c>
       <c r="C9" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'memimpin', 'rapat', 'percepatan', 'penanggulangan', 'tsunami', 'paludonggalasigi', 'sebelumnya', 'pak', 'jika', 'meninjau', 'lokasi', 'pemukima']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['jk', 'memimpin', 'rapat', 'percepatan', 'penanggulangan', 'tsunami', 'paludonggalasigi', 'jk', 'meninjau', 'lokasi', 'pemukima']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['jk', 'pimpin', 'rapat', 'cepat', 'tanggulang', 'tsunami', 'paludonggalasigi', 'jk', 'tinjau', 'lokasi', 'pemukima']</t>
+          <t>['memimpin', 'rapat', 'percepatan', 'penanggulangan', 'tsunami', 'paludonggalasigi', 'meninjau', 'lokasi', 'pemukima']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['pimpin', 'rapat', 'cepat', 'tanggulang', 'tsunami', 'paludonggalasigi', 'tinjau', 'lokasi', 'pemukima']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22609</v>
+        <v>30851</v>
       </c>
       <c r="C10" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['mengunjungi', 'sejumlah', 'lokasi', 'pengungsian', 'dampak', 'gempa', 'dan', 'tsunami', 'yang', 'menerjang', 'paludonggalasigi', 'sulawesi', 'tengah']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['mengunjungi', 'lokasi', 'pengungsian', 'dampak', 'gempa', 'tsunami', 'menerjang', 'paludonggalasigi', 'sulawesi']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['unjung', 'lokasi', 'ungsi', 'dampak', 'gempa', 'tsunami', 'terjang', 'paludonggalasigi', 'sulawesi']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22610</v>
+        <v>30852</v>
       </c>
       <c r="C11" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'baru', 'saja', 'tiba', 'di', 'bandara', 'mutiara', 'sis', 'al', 'jufrie', 'palu', 'sulawesi', 'tengah', 'untuk', 'penanganan', 'dampak', 'gempa']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'bandara', 'mutiara', 'sis', 'al', 'jufrie', 'palu', 'sulawesi', 'penanganan', 'dampak', 'gempa']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'bandara', 'mutiara', 'sis', 'al', 'jufrie', 'palu', 'sulawesi', 'tangan', 'dampak', 'gempa']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22611</v>
+        <v>30853</v>
       </c>
       <c r="C12" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'ri', 'jusuf', 'kalla', 'bertemu', 'rekannya', 'wakil, presiden', 'afghanistan', 'abdullah', 'abdullah', 'di', 'istana', 'wakil, presiden', 'merdeka', 'selatan']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'bertemu', 'rekannya', 'wapres', 'afghanistan', 'abdullah', 'abdullah', 'istana', 'wapres', 'merdeka', 'selatan']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'temu', 'rekan', 'wapres', 'afghanistan', 'abdullah', 'abdullah', 'istana', 'wapres', 'merdeka', 'selatan']</t>
+          <t>['wakil, presiden', 'ri', 'jusuf', 'kalla', 'bertemu', 'rekannya', 'wakil, presiden', 'afghanistan', 'abdullah', 'abdullah', 'istana', 'wakil, presiden', 'merdeka', 'selatan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'ri', 'jusuf', 'kalla', 'temu', 'rekan', 'wakil presiden', 'afghanistan', 'abdullah', 'abdullah', 'istana', 'wakil presiden', 'merdeka', 'selatan']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22612</v>
+        <v>30854</v>
       </c>
       <c r="C13" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'ri', 'jusuf', 'kalla', 'menyampaikan', 'bela', 'sungkawa', 'sedalam', 'dalamnya', 'atas', 'korban', 'tsunami', 'di', 'donggala', 'dan', 'palu', 'sulawesi, tengah']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'bela', 'sungkawa', 'sedalam', 'dalamnya', 'korban', 'tsunami', 'donggala', 'palu', 'sulteng']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'bela', 'sungkawa', 'dalam', 'dalam', 'korban', 'tsunami', 'donggala', 'palu', 'sulteng']</t>
+          <t>['wakil, presiden', 'ri', 'jusuf', 'kalla', 'bela', 'sungkawa', 'sedalam', 'dalamnya', 'korban', 'tsunami', 'donggala', 'palu', 'sulawesi, tengah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'ri', 'jusuf', 'kalla', 'bela', 'sungkawa', 'dalam', 'dalam', 'korban', 'tsunami', 'donggala', 'palu', 'sulawesi tengah']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22613</v>
+        <v>30855</v>
       </c>
       <c r="C14" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'ri', 'saya', 'mendampingi', 'wakil, presiden', 'ri', 'jika', 'dalam', 'pertemuan', 'dengan', 'federasi', 'palang', 'merah', 'internasional', 'elhadj', 'as', 'saya', 'di', 'unhq', 'nya']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['ri', 'mendampingi', 'wapres', 'ri', 'jk', 'pertemuan', 'federasi', 'palang', 'merah', 'internasional', 'elhadj', 'as', 'sy', 'unhq']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['ri', 'damping', 'wapres', 'ri', 'jk', 'temu', 'federasi', 'palang', 'merah', 'internasional', 'elhadj', 'as', 'sy', 'unhq']</t>
+          <t>['ri', 'mendampingi', 'wakil, presiden', 'ri', 'pertemuan', 'federasi', 'palang', 'merah', 'internasional', 'elhadj', 'as', 'unhq']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['ri', 'damping', 'wakil presiden', 'ri', 'temu', 'federasi', 'palang', 'merah', 'internasional', 'elhadj', 'as', 'unhq']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22614</v>
+        <v>30856</v>
       </c>
       <c r="C15" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'personil', 'palang, merah, indonesia', 'luwu', 'utara', 'yang', 'terdiri', 'dari', 'tim', 'assesment', 'tim', 'pelayanan', 'dan', 'tim', 'ambulance', 'berangkat', 'menuju', 'sulawesi', 'teng']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['personil', 'pmi', 'luwu', 'utara', 'tim', 'assesment', 'tim', 'pelayanan', 'tim', 'ambulance', 'berangkat', 'sulawesi', 'teng']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['personil', 'pmi', 'luwu', 'utara', 'tim', 'assesment', 'tim', 'layan', 'tim', 'ambulance', 'berangkat', 'sulawesi', 'teng']</t>
+          <t>['personil', 'palang, merah, indonesia', 'luwu', 'utara', 'tim', 'assesment', 'tim', 'pelayanan', 'tim', 'ambulance', 'berangkat', 'sulawesi', 'teng']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['personil', 'palang merah indonesia', 'luwu', 'utara', 'tim', 'assesment', 'tim', 'layan', 'tim', 'ambulance', 'berangkat', 'sulawesi', 'teng']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22615</v>
+        <v>30857</v>
       </c>
       <c r="C16" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -992,15 +1067,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1011,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22616</v>
+        <v>30858</v>
       </c>
       <c r="C17" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1028,17 +1108,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'ri', 'jusuf', 'kalla', 'saat', 'berpidato', 'pada', 'sidang', 'umum', 'pbb', 'kamis', 'kepemimpinan', 'bukanlah', 'yang', 'memiliki', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'berpidato', 'sidang', 'pbb', 'kamis', 'kepemimpinan', 'memiliki', 'kekuatan']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['wapres', 'ri', 'jusuf', 'kalla', 'pidato', 'sidang', 'pbb', 'kamis', 'pimpin', 'milik', 'kuat']</t>
+          <t>['wakil, presiden', 'ri', 'jusuf', 'kalla', 'berpidato', 'sidang', 'pbb', 'kamis', 'kepemimpinan', 'memiliki', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'ri', 'jusuf', 'kalla', 'pidato', 'sidang', 'pbb', 'kamis', 'pimpin', 'milik', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22617</v>
+        <v>30859</v>
       </c>
       <c r="C18" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1064,15 +1149,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['rt', 'di', 'tengah', 'ketidakpastian', 'global', 'perdagangan', 'indonesia', 'amp', 'korea', 'selatan', 'tahun', 'naik', 'lalu', 'di', 'seoul', 'kemarin', 'ditandatang']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['ketidakpastian', 'global', 'perdagangan', 'indonesia', 'korea', 'selatan', 'seoul', 'kemarin', 'ditandatang']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['ketidakpastian', 'global', 'dagang', 'indonesia', 'korea', 'selatan', 'seoul', 'kemarin', 'ditandatang']</t>
         </is>
@@ -1083,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22618</v>
+        <v>30860</v>
       </c>
       <c r="C19" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1100,15 +1190,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['selamat', 'tahun', 'baru', 'hijriah', 'semangat', 'tahun', 'baru', 'kita', 'jadikan', 'momentum', 'untuk', 'memperkuat', 'persatuan']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['selamat', 'hijriah', 'semangat', 'jadikan', 'momentum', 'memperkuat', 'persatuan']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['selamat', 'hijriah', 'semangat', 'jadi', 'momentum', 'kuat', 'satu']</t>
         </is>
@@ -1119,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22619</v>
+        <v>30861</v>
       </c>
       <c r="C20" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1136,15 +1231,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
@@ -1155,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22620</v>
+        <v>30862</v>
       </c>
       <c r="C21" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1172,17 +1272,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'dengan', 'eric', 'thohir', 'dan', 'syafri', 'syamsuddin', 'minum, kopi', 'bareng', 'di', 'zona', 'atun', 'kawasan', 'kuliner', 'kompleks', 'gelora, bung, karno', 'senayan', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['jk', 'eric', 'thohir', 'syafri', 'syamsuddin', 'ngopi', 'bareng', 'zona', 'atun', 'kawasan', 'kuliner', 'kompleks', 'gbk', 'senayan', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['jk', 'eric', 'thohir', 'syafri', 'syamsuddin', 'ngopi', 'bareng', 'zona', 'atun', 'kawasan', 'kuliner', 'kompleks', 'gbk', 'senayan', 'jakarta']</t>
+          <t>['eric', 'thohir', 'syafri', 'syamsuddin', 'minum, kopi', 'bareng', 'zona', 'atun', 'kawasan', 'kuliner', 'kompleks', 'gelora, bung, karno', 'senayan', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['eric', 'thohir', 'syafri', 'syamsuddin', 'minum kopi', 'bareng', 'zona', 'atun', 'kawasan', 'kuliner', 'kompleks', 'gelora bung karno', 'senayan', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1191,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22621</v>
+        <v>30863</v>
       </c>
       <c r="C22" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1208,17 +1313,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'silat', 'persatukan', 'pak', 'pak', 'dan', 'pak', 'jika', 'lihat', 'serunya', 'tapi', 'adem']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['silat', 'persatukan', 'jk', 'lihat', 'serunya', 'adem']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['silat', 'satu', 'jk', 'lihat', 'seru', 'adem']</t>
+          <t>['silat', 'persatukan', 'lihat', 'serunya', 'adem']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['silat', 'satu', 'lihat', 'seru', 'adem']</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1337,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22622</v>
+        <v>30864</v>
       </c>
       <c r="C23" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1244,15 +1354,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'adha']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'adha']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'adha']</t>
         </is>
@@ -1263,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22623</v>
+        <v>30865</v>
       </c>
       <c r="C24" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1280,17 +1395,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'semangati', 'warga', 'lombok', 'lombok', 'bangun', 'kembali', 'kita', 'bangun', 'kembali', 'pesan', 'pak', 'jika', 'di', 'posko', 'pengungsian', 'lombok']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['jk', 'semangati', 'warga', 'lombok', 'lombok', 'bangun', 'bangun', 'pesan', 'jk', 'posko', 'pengungsian', 'lombok']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['jk', 'semangat', 'warga', 'lombok', 'lombok', 'bangun', 'bangun', 'pesan', 'jk', 'posko', 'ungsi', 'lombok']</t>
+          <t>['semangati', 'warga', 'lombok', 'lombok', 'bangun', 'bangun', 'pesan', 'posko', 'pengungsian', 'lombok']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['semangat', 'warga', 'lombok', 'lombok', 'bangun', 'bangun', 'pesan', 'posko', 'ungsi', 'lombok']</t>
         </is>
       </c>
     </row>
@@ -1299,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22624</v>
+        <v>30866</v>
       </c>
       <c r="C25" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1316,15 +1436,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['rt', 'medali', 'pertama', 'indonesia', 'di', 'asian', 'games', 'datang', 'dari', 'cabang', 'wushu', 'atlet', 'putra', 'edgar', 'xavier', 'marvelo', 'meraih', 'medali', 'perak', 'pad']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['medali', 'indonesia', 'asian', 'games', 'cabang', 'wushu', 'atlet', 'putra', 'edgar', 'xavier', 'marvelo', 'meraih', 'medali', 'perak', 'pad']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['medali', 'indonesia', 'asi', 'games', 'cabang', 'wushu', 'atlet', 'putra', 'edgar', 'xavier', 'marvelo', 'raih', 'medali', 'perak', 'pad']</t>
         </is>
@@ -1335,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22625</v>
+        <v>30867</v>
       </c>
       <c r="C26" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1352,17 +1477,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'untuk', 'sahabat', 'palang, merah, indonesia', 'yang', 'ada', 'di', 'berikut', 'ini', 'adalah', 'nomor', 'yang', 'dapat', 'kamu', 'hubungi', 'untuk', 'pelayanan', 'palang, merah, indonesia', 'dalam', 'respon', 'ge']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['sahabat', 'pmi', 'nomor', 'hubungi', 'pelayanan', 'pmi', 'respon', 'ge']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['sahabat', 'pmi', 'nomor', 'hubung', 'layan', 'pmi', 'respon', 'ge']</t>
+          <t>['sahabat', 'palang, merah, indonesia', 'nomor', 'hubungi', 'pelayanan', 'palang, merah, indonesia', 'respon', 'ge']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['sahabat', 'palang merah indonesia', 'nomor', 'hubung', 'layan', 'palang merah indonesia', 'respon', 'ge']</t>
         </is>
       </c>
     </row>
@@ -1371,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22626</v>
+        <v>30868</v>
       </c>
       <c r="C27" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1388,17 +1518,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'terima', 'kasih', 'banyak', 'atas', 'kerja', 'keras', 'sepenuh', 'hati', 'semua', 'yang', 'terlibat', 'dalam', 'terima', 'kasih', 'banyak']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['terima', 'kasih', 'kerja', 'keras', 'sepenuh', 'hati', 'terlibat', 'dlm', 'terima', 'kasih']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kerja', 'keras', 'sepenuh', 'hati', 'libat', 'dlm', 'terima', 'kasih']</t>
+          <t>['terima', 'kasih', 'kerja', 'keras', 'sepenuh', 'hati', 'terlibat', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'kerja', 'keras', 'sepenuh', 'hati', 'libat', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -1407,10 +1542,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22627</v>
+        <v>30869</v>
       </c>
       <c r="C28" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1424,15 +1559,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['foto']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['foto']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['foto']</t>
         </is>
@@ -1443,10 +1583,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22628</v>
+        <v>30870</v>
       </c>
       <c r="C29" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1460,15 +1600,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia']</t>
         </is>
@@ -1479,10 +1624,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22629</v>
+        <v>30871</v>
       </c>
       <c r="C30" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1496,17 +1641,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'rabu', 'meninjau', 'stadion', 'jalak', 'harupat', 'untuk', 'memastikan', 'kesiapan', 'menyelenggarakan', 'asian', 'games']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['jk', 'rabu', 'meninjau', 'stadion', 'jalak', 'harupat', 'kesiapan', 'menyelenggarakan', 'asian', 'games']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['jk', 'rabu', 'tinjau', 'stadion', 'jalak', 'harupat', 'kesiap', 'selenggara', 'asi', 'games']</t>
+          <t>['rabu', 'meninjau', 'stadion', 'jalak', 'harupat', 'kesiapan', 'menyelenggarakan', 'asian', 'games']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['rabu', 'tinjau', 'stadion', 'jalak', 'harupat', 'kesiap', 'selenggara', 'asi', 'games']</t>
         </is>
       </c>
     </row>
@@ -1515,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22630</v>
+        <v>30872</v>
       </c>
       <c r="C31" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1532,17 +1682,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'ceramah', 'kajian', 'dzuhur', 'memakmurkan', 'masjid', 'memberdayakan', 'umat', 'di', 'masjid', 'baitul', 'ihsan', 'gedung', 'bank', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['jk', 'ceramah', 'kajian', 'dzuhur', 'memakmurkan', 'masjid', 'memberdayakan', 'umat', 'masjid', 'baitul', 'ihsan', 'gedung', 'bank', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['jk', 'ceramah', 'kaji', 'dzuhur', 'makmur', 'masjid', 'daya', 'umat', 'masjid', 'baitul', 'ihsan', 'gedung', 'bank', 'indonesia']</t>
+          <t>['ceramah', 'kajian', 'dzuhur', 'memakmurkan', 'masjid', 'memberdayakan', 'umat', 'masjid', 'baitul', 'ihsan', 'gedung', 'bank', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ceramah', 'kaji', 'dzuhur', 'makmur', 'masjid', 'daya', 'umat', 'masjid', 'baitul', 'ihsan', 'gedung', 'bank', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1551,10 +1706,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22631</v>
+        <v>30873</v>
       </c>
       <c r="C32" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1568,17 +1723,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'dengan', 'makan', 'pisang', 'di', 'tepi', 'kali', 'hitam', 'lalu', 'bertanya', 'kepada', 'awak', 'media', 'apa', 'masih', 'ada', 'bau', 'serent']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['jk', 'makan', 'pisang', 'tepi', 'kali', 'item', 'awak', 'media', 'bau', 'serent']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['jk', 'makan', 'pisang', 'tepi', 'kali', 'item', 'awak', 'media', 'bau', 'serent']</t>
+          <t>['makan', 'pisang', 'tepi', 'kali', 'hitam', 'awak', 'media', 'bau', 'serent']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['makan', 'pisang', 'tepi', 'kali', 'hitam', 'awak', 'media', 'bau', 'serent']</t>
         </is>
       </c>
     </row>
@@ -1587,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22632</v>
+        <v>30874</v>
       </c>
       <c r="C33" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1604,15 +1764,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['rt', 'pakjk', 'berangkat', 'ke', 'kabupaten', 'poso', 'dan', 'tentena', 'propinsi', 'sulawesi', 'tengah', 'menghadiri', 'konvensi', 'pendeta', 'segereja', 'kristen']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['pakjk', 'berangkat', 'kabupaten', 'poso', 'tentena', 'propinsi', 'sulawesi', 'menghadiri', 'konvensi', 'pendeta', 'segereja', 'kristen']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['pakjk', 'berangkat', 'kabupaten', 'poso', 'tentena', 'propinsi', 'sulawesi', 'hadir', 'konvensi', 'pendeta', 'gereja', 'kristen']</t>
         </is>
@@ -1623,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22633</v>
+        <v>30875</v>
       </c>
       <c r="C34" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1640,15 +1805,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['semoga', 'lekas', 'sembuh', 'pak', 'bpmi']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['semoga', 'lekas', 'sembuh', 'bpmi']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['moga', 'lekas', 'sembuh', 'bpmi']</t>
         </is>
@@ -1659,10 +1829,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22634</v>
+        <v>30876</v>
       </c>
       <c r="C35" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1676,17 +1846,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'berbincang', 'bincang', 'dengan', 'siswa', 'perancang', 'robot', 'di', 'gedung', 'pgri', 'tanabang', 'jakpus', 'official']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['jk', 'berbincang', 'bincang', 'siswa', 'perancang', 'robot', 'gedung', 'pgri', 'tanabang', 'jakpus', 'official']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['jk', 'bincang', 'bincang', 'siswa', 'ancang', 'robot', 'gedung', 'pgri', 'tanabang', 'jakpus', 'official']</t>
+          <t>['berbincang', 'bincang', 'siswa', 'perancang', 'robot', 'gedung', 'pgri', 'tanabang', 'jakpus', 'official']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['bincang', 'bincang', 'siswa', 'ancang', 'robot', 'gedung', 'pgri', 'tanabang', 'jakpus', 'official']</t>
         </is>
       </c>
     </row>
@@ -1695,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22635</v>
+        <v>30877</v>
       </c>
       <c r="C36" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1712,17 +1887,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'bersama', 'menteri, perekonomian', 'perhimpunan, mahasiswa, katolik', 'puan', 'maharani', 'usai', 'membuka', 'pertemuan', 'ulama', 'dan', 'dai', 'se', 'asia', 'tenggara', 'afrika', 'dan', 'eropa', 'kev']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['jk', 'menko', 'pmk', 'puan', 'maharani', 'membuka', 'pertemuan', 'ulama', 'dai', 'asia', 'tenggara', 'afrika', 'eropa', 'kev']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['jk', 'menko', 'pmk', 'puan', 'maharani', 'buka', 'temu', 'ulama', 'dai', 'asia', 'tenggara', 'afrika', 'eropa', 'kev']</t>
+          <t>['menteri, perekonomian', 'perhimpunan, mahasiswa, katolik', 'puan', 'maharani', 'membuka', 'pertemuan', 'ulama', 'dai', 'asia', 'tenggara', 'afrika', 'eropa', 'kev']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['menteri ekonomi', 'himpun mahasiswa katolik', 'puan', 'maharani', 'buka', 'temu', 'ulama', 'dai', 'asia', 'tenggara', 'afrika', 'eropa', 'kev']</t>
         </is>
       </c>
     </row>
@@ -1731,10 +1911,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22636</v>
+        <v>30878</v>
       </c>
       <c r="C37" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1748,17 +1928,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'menyempatkan', 'diri', 'silaturrahmi', 'ke', 'rumah', 'pak', 'dalam', 'suasana', 'lebaran', 'idul', 'fitri', 'hijriah', 'senin']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['jk', 'menyempatkan', 'silaturrahmi', 'rumah', 'suasana', 'lebaran', 'idul', 'fitri', 'hijriah', 'senin']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['jk', 'sempat', 'silaturrahmi', 'rumah', 'suasana', 'lebaran', 'idul', 'fitri', 'hijriah', 'senin']</t>
+          <t>['menyempatkan', 'silaturrahmi', 'rumah', 'suasana', 'lebaran', 'idul', 'fitri', 'hijriah', 'senin']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['sempat', 'silaturrahmi', 'rumah', 'suasana', 'lebaran', 'idul', 'fitri', 'hijriah', 'senin']</t>
         </is>
       </c>
     </row>
@@ -1767,10 +1952,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22637</v>
+        <v>30879</v>
       </c>
       <c r="C38" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1784,17 +1969,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'mengucapkan', 'selamat', 'ulang', 'tahun', 'dan', 'doa', 'untuk', 'bapak']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['jk', 'selamat', 'ulang', 'doa', 'bpk']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['jk', 'selamat', 'ulang', 'doa', 'bpk']</t>
+          <t>['selamat', 'ulang', 'doa']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'doa']</t>
         </is>
       </c>
     </row>
@@ -1803,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22638</v>
+        <v>30880</v>
       </c>
       <c r="C39" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1820,17 +2010,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'fitri', 'syawal', 'taqaballahu', 'minna', 'wa', 'minkum', 'mohon', 'maaf', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal', 'taqaballahu', 'minna', 'wa', 'minkum', 'mohon', 'maaf', 'lahir', 'bathin']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal', 'taqaballahu', 'minna', 'wa', 'minkum', 'mohon', 'maaf', 'lahir', 'bathin']</t>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal', 'taqaballahu', 'minna', 'wa', 'minkum', 'mohon', 'maaf', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal', 'taqaballahu', 'minna', 'wa', 'minkum', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
     </row>
@@ -1839,10 +2034,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22639</v>
+        <v>30881</v>
       </c>
       <c r="C40" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1856,17 +2051,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'mahathir', 'dan', 'shinzo', 'abe', 'pada', 'jamuan', 'international', 'conference', 'on', 'the', 'future', 'of', 'asia', 'tokyo']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['jk', 'mahatir', 'shinzo', 'abe', 'jamuan', 'international', 'conference', 'on', 'the', 'future', 'of', 'asia', 'tokyo']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['jk', 'mahatir', 'shinzo', 'abe', 'jamu', 'international', 'conference', 'on', 'the', 'future', 'of', 'asia', 'tokyo']</t>
+          <t>['mahathir', 'shinzo', 'abe', 'jamuan', 'international', 'conference', 'on', 'the', 'future', 'of', 'asia', 'tokyo']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['mahathir', 'shinzo', 'abe', 'jamu', 'international', 'conference', 'on', 'the', 'future', 'of', 'asia', 'tokyo']</t>
         </is>
       </c>
     </row>
@@ -1875,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22640</v>
+        <v>30882</v>
       </c>
       <c r="C41" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1892,17 +2092,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'melepas', 'relawan', 'palang', 'merah', 'indonesia', 'palang, merah, indonesia', 'pada', 'apel', 'siaga', 'mudik', 'lebaran', 'disc, jockey', 'lapangan', 'parkir', 'stasiun', 'gamb']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['jk', 'melepas', 'relawan', 'palang', 'merah', 'indonesia', 'pmi', 'apel', 'siaga', 'mudik', 'lebaran', 'dj', 'lapangan', 'parkir', 'stasiun', 'gamb']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['jk', 'lepas', 'rawan', 'palang', 'merah', 'indonesia', 'pmi', 'apel', 'siaga', 'mudik', 'lebaran', 'dj', 'lapang', 'parkir', 'stasiun', 'gamb']</t>
+          <t>['melepas', 'relawan', 'palang', 'merah', 'indonesia', 'palang, merah, indonesia', 'apel', 'siaga', 'mudik', 'lebaran', 'disc, jockey', 'lapangan', 'parkir', 'stasiun', 'gamb']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['lepas', 'rawan', 'palang', 'merah', 'indonesia', 'palang merah indonesia', 'apel', 'siaga', 'mudik', 'lebaran', 'disc jockey', 'lapang', 'parkir', 'stasiun', 'gamb']</t>
         </is>
       </c>
     </row>
@@ -1911,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22641</v>
+        <v>30883</v>
       </c>
       <c r="C42" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1928,17 +2133,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['rt', 'flash', 'pembaruan', 'per', 'juni', 'sebanyak', 'warga', 'telah', 'mengungsi', 'palang, merah, indonesia', 'telah', 'memberikan', 'pelayanan', 'kesehatan', 'membe']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['flash', 'update', 'juni', 'warga', 'mengungsi', 'pmi', 'pelayanan', 'kesehatan', 'membe']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['flash', 'update', 'juni', 'warga', 'ungsi', 'pmi', 'layan', 'sehat', 'membe']</t>
+          <t>['flash', 'pembaruan', 'juni', 'warga', 'mengungsi', 'palang, merah, indonesia', 'pelayanan', 'kesehatan', 'membe']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['flash', 'baru', 'juni', 'warga', 'ungsi', 'palang merah indonesia', 'layan', 'sehat', 'membe']</t>
         </is>
       </c>
     </row>
@@ -1947,10 +2157,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22642</v>
+        <v>30884</v>
       </c>
       <c r="C43" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1964,17 +2174,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'ceramah', 'ramadan', 'jelang', 'berbuka', 'puasa', 'bersama', 'keluarga', 'besar', 'ikatan, cendekiawan, muslim, indonesia', 'di', 'istana', 'wakil, presiden', 'jakarta', 'kamis']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['jk', 'ceramah', 'ramadhan', 'jelang', 'berbuka', 'puasa', 'keluarga', 'icmi', 'istana', 'wapres', 'jakarta', 'kamis']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['jk', 'ceramah', 'ramadhan', 'jelang', 'buka', 'puasa', 'keluarga', 'icmi', 'istana', 'wapres', 'jakarta', 'kamis']</t>
+          <t>['ceramah', 'ramadan', 'jelang', 'berbuka', 'puasa', 'keluarga', 'ikatan, cendekiawan, muslim, indonesia', 'istana', 'wakil, presiden', 'jakarta', 'kamis']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['ceramah', 'ramadan', 'jelang', 'buka', 'puasa', 'keluarga', 'ikat cendekiawan muslim indonesia', 'istana', 'wakil presiden', 'jakarta', 'kamis']</t>
         </is>
       </c>
     </row>
@@ -1983,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22643</v>
+        <v>30885</v>
       </c>
       <c r="C44" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2000,17 +2215,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'buka, bersama', 'anak', 'yatim']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['jk', 'bukber', 'anak', 'yatim']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jk', 'bukber', 'anak', 'yatim']</t>
+          <t>['buka, bersama', 'anak', 'yatim']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['buka sama', 'anak', 'yatim']</t>
         </is>
       </c>
     </row>
@@ -2019,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22644</v>
+        <v>30886</v>
       </c>
       <c r="C45" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2036,17 +2256,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'pesan', 'indonesia', 'pada', 'konferensi, tingkat, tinggi', 'oki', 'sih', 'istanbul', 'negaranegara', 'oki', 'serta', 'faksi', 'ditubuh', 'palestina', 'harus', 'bersatu', 'melawan']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['pesan', 'indonesia', 'ktt', 'oki', 'istanbul', 'negaranegara', 'oki', 'faksi', 'ditubuh', 'palestina', 'bersatu', 'melawan']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['pesan', 'indonesia', 'ktt', 'oki', 'istanbul', 'negaranegara', 'oki', 'faksi', 'tubuh', 'palestina', 'satu', 'lawan']</t>
+          <t>['pesan', 'indonesia', 'konferensi, tingkat, tinggi', 'oki', 'istanbul', 'negaranegara', 'oki', 'faksi', 'ditubuh', 'palestina', 'bersatu', 'melawan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['pesan', 'indonesia', 'konferensi tingkat tinggi', 'oki', 'istanbul', 'negaranegara', 'oki', 'faksi', 'tubuh', 'palestina', 'satu', 'lawan']</t>
         </is>
       </c>
     </row>
@@ -2055,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22645</v>
+        <v>30887</v>
       </c>
       <c r="C46" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2072,15 +2297,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2091,10 +2321,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22646</v>
+        <v>30888</v>
       </c>
       <c r="C47" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2108,17 +2338,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'ke', 'turki', 'untuk', 'dukung', 'palestina']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['jk', 'turki', 'dukung', 'palestina']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['jk', 'turki', 'dukung', 'palestina']</t>
+          <t>['turki', 'dukung', 'palestina']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['turki', 'dukung', 'palestina']</t>
         </is>
       </c>
     </row>
@@ -2127,10 +2362,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22647</v>
+        <v>30889</v>
       </c>
       <c r="C48" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2144,17 +2379,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['selamat', 'memasuki', 'bulan', 'suci', 'ramadan', 'semoga', 'ramadan', 'membawa', 'berkah', 'dan', 'hidayah', 'bagi', 'kita', 'semuaaamiin']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['selamat', 'memasuki', 'suci', 'ramadhan', 'semoga', 'ramadhan', 'membawa', 'berkah', 'hidayah', 'semuaaamiin']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['selamat', 'pasuk', 'suci', 'ramadhan', 'moga', 'ramadhan', 'bawa', 'berkah', 'hidayah', 'semuaaamiin']</t>
+          <t>['selamat', 'memasuki', 'suci', 'ramadan', 'semoga', 'ramadan', 'membawa', 'berkah', 'hidayah', 'semuaaamiin']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['selamat', 'pasuk', 'suci', 'ramadan', 'moga', 'ramadan', 'bawa', 'berkah', 'hidayah', 'semuaaamiin']</t>
         </is>
       </c>
     </row>
@@ -2163,10 +2403,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22648</v>
+        <v>30890</v>
       </c>
       <c r="C49" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2180,15 +2420,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'untuk', 'ucapan', 'dan', 'doanyaaamiin']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ucapan', 'doanyaaamiin']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ucap', 'doanyaaamiin']</t>
         </is>
@@ -2199,10 +2444,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22649</v>
+        <v>30891</v>
       </c>
       <c r="C50" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2216,15 +2461,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
@@ -2235,10 +2485,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22650</v>
+        <v>30892</v>
       </c>
       <c r="C51" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2252,17 +2502,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['amin', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['aamiin', 'terima', 'kasih']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['aamiin', 'terima', 'kasih']</t>
+          <t>['amin', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['amin', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -2271,10 +2526,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22651</v>
+        <v>30893</v>
       </c>
       <c r="C52" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2288,17 +2543,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'pengambilan', 'gambar', 'pak', 'jika', 'untuk', 'program', 'etalkshow']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['pengambilan', 'gambar', 'jk', 'program', 'etalkshow']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ambil', 'gambar', 'jk', 'program', 'etalkshow']</t>
+          <t>['pengambilan', 'gambar', 'program', 'etalkshow']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['ambil', 'gambar', 'program', 'etalkshow']</t>
         </is>
       </c>
     </row>
@@ -2307,10 +2567,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22652</v>
+        <v>30894</v>
       </c>
       <c r="C53" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2324,17 +2584,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'wakil', 'presiden', 'ri', 'jika', 'ditemani', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'memasuki', 'lokasi', 'digelarnya', 'kegiatan', 'tahun', 'asian']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['wakil', 'presiden', 'ri', 'jk', 'ditemani', 'gubernur', 'dki', 'jakarta', 'memasuki', 'lokasi', 'digelarnya', 'kegiatan', 'th', 'asian']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['wakil', 'presiden', 'ri', 'jk', 'tani', 'gubernur', 'dki', 'jakarta', 'pasuk', 'lokasi', 'gelar', 'giat', 'th', 'asi']</t>
+          <t>['wakil', 'presiden', 'ri', 'ditemani', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'memasuki', 'lokasi', 'digelarnya', 'kegiatan', 'asian']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['wakil', 'presiden', 'ri', 'tani', 'gubernur', 'daerah khusus ibukota', 'jakarta', 'pasuk', 'lokasi', 'gelar', 'giat', 'asi']</t>
         </is>
       </c>
     </row>
@@ -2343,10 +2608,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22653</v>
+        <v>30895</v>
       </c>
       <c r="C54" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2360,17 +2625,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['rt', 'wawancara', 'jika', 'dengan', 'perwakilan', 'untuk', 'asia', 'tenggara', 'richard', 'paddock', 'di', 'ruang', 'kerjanya', 'kantor', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['wawancara', 'jk', 'perwakilan', 'asia', 'tenggara', 'richard', 'paddock', 'ruang', 'kerjanya', 'kantor', 'wapres']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['wawancara', 'jk', 'wakil', 'asia', 'tenggara', 'richard', 'paddock', 'ruang', 'kerja', 'kantor', 'wapres']</t>
+          <t>['wawancara', 'perwakilan', 'asia', 'tenggara', 'richard', 'paddock', 'ruang', 'kerjanya', 'kantor', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['wawancara', 'wakil', 'asia', 'tenggara', 'richard', 'paddock', 'ruang', 'kerja', 'kantor', 'wakil presiden']</t>
         </is>
       </c>
     </row>
@@ -2379,10 +2649,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22654</v>
+        <v>30896</v>
       </c>
       <c r="C55" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2396,15 +2666,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'stunting', 'bisa', 'terjadi', 'pada', 'kelompok', 'yang', 'tidak', 'miskin', 'apabila', 'mereka', 'tidak', 'memenuhi', 'gizinya', 'dengan', 'baik', 'dan', 'cukup', 'sejak']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['stunting', 'kelompok', 'miskin', 'memenuhi', 'gizinya']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['stunting', 'kelompok', 'miskin', 'penuh', 'gizi']</t>
         </is>
@@ -2415,10 +2690,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22655</v>
+        <v>30897</v>
       </c>
       <c r="C56" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2432,17 +2707,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['rt', 'mau', 'bocoran', 'penyanyi', 'yang', 'disukai', 'jika', 'saat', 'ini', 'ini', 'dia', 'fildan', 'cc', 'bintang']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['bocoran', 'penyanyi', 'disukai', 'jk', 'fildan', 'cc', 'bintang']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['bocor', 'nyanyi', 'suka', 'jk', 'fildan', 'cc', 'bintang']</t>
+          <t>['bocoran', 'penyanyi', 'disukai', 'fildan', 'cc', 'bintang']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['bocor', 'nyanyi', 'suka', 'fildan', 'cc', 'bintang']</t>
         </is>
       </c>
     </row>
@@ -2451,10 +2731,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22656</v>
+        <v>30898</v>
       </c>
       <c r="C57" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2468,17 +2748,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['rt', 'selepas', 'proses', 'presiden', 'dan', 'ri', 'jika', 'memberikan', 'ucapan', 'selamat', 'kepada', 'kedunya', 'untuk', 'kemudian', 'diikuti', 'online']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['selepas', 'proses', 'presiden', 'ri', 'jk', 'ucapan', 'selamat', 'kedunya', 'diikuti', 'ol']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['lepas', 'proses', 'presiden', 'ri', 'jk', 'ucap', 'selamat', 'kedunya', 'ikut', 'ol']</t>
+          <t>['selepas', 'proses', 'presiden', 'ri', 'ucapan', 'selamat', 'kedunya', 'diikuti', 'online']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['lepas', 'proses', 'presiden', 'ri', 'ucap', 'selamat', 'kedunya', 'ikut', 'online']</t>
         </is>
       </c>
     </row>
@@ -2487,10 +2772,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22657</v>
+        <v>30899</v>
       </c>
       <c r="C58" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2504,15 +2789,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'kegiatan', 'ini', 'sendiri', 'merupakan', 'bagian', 'acara', 'gerak', 'jalan', 'sehat', 'kerukunan', 'keluarga', 'sulawesi', 'selatan', 'kkss', 'yang', 'dibuka', 'langsung']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['kegiatan', 'acara', 'gerak', 'jalan', 'sehat', 'kerukunan', 'keluarga', 'sulawesi', 'selatan', 'kkss', 'dibuka', 'langsung']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['giat', 'acara', 'gerak', 'jalan', 'sehat', 'rukun', 'keluarga', 'sulawesi', 'selatan', 'kkss', 'buka', 'langsung']</t>
         </is>
@@ -2523,10 +2813,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22658</v>
+        <v>30900</v>
       </c>
       <c r="C59" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2540,17 +2830,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'wakil', 'presiden', 'ri', 'jika', 'didampingi', 'menpora', 'nahrawi', 'chef', 'deh', 'mission', 'cdm', 'asian', 'games', 'syafruddin', 'ketua', 'umu']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['ri', 'wakil', 'presiden', 'ri', 'jk', 'didampingi', 'menpora', 'nahrawi', 'chef', 'de', 'mission', 'cdm', 'asian', 'games', 'syafruddin', 'ketua', 'umu']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ri', 'wakil', 'presiden', 'ri', 'jk', 'damping', 'menpora', 'nahrawi', 'chef', 'de', 'mission', 'cdm', 'asi', 'games', 'syafruddin', 'ketua', 'umu']</t>
+          <t>['ri', 'wakil', 'presiden', 'ri', 'didampingi', 'menpora', 'nahrawi', 'chef', 'deh', 'mission', 'cdm', 'asian', 'games', 'syafruddin', 'ketua', 'umu']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ri', 'wakil', 'presiden', 'ri', 'damping', 'menpora', 'nahrawi', 'chef', 'deh', 'mission', 'cdm', 'asi', 'games', 'syafruddin', 'ketua', 'umu']</t>
         </is>
       </c>
     </row>
@@ -2559,10 +2854,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22659</v>
+        <v>30901</v>
       </c>
       <c r="C60" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2576,17 +2871,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['rt', 'jaksel', 'wapresketua', 'umum', 'mengunjungi', 'stand', 'hydroponic', 'sibat', 'kelurahan', 'pengadegan', 'di', 'hotel', 'milenium', 'jakarta', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['jaksel', 'wapresketua', 'mengunjungi', 'stand', 'hydroponic', 'sibat', 'kelurahan', 'pengadegan', 'hotel', 'milenium', 'jakarta', 'dki']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['jaksel', 'wapresketua', 'unjung', 'stand', 'hydroponic', 'sibat', 'lurah', 'adegan', 'hotel', 'milenium', 'jakarta', 'dki']</t>
+          <t>['jaksel', 'wapresketua', 'mengunjungi', 'stand', 'hydroponic', 'sibat', 'kelurahan', 'pengadegan', 'hotel', 'milenium', 'jakarta', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['jaksel', 'wapresketua', 'unjung', 'stand', 'hydroponic', 'sibat', 'lurah', 'adegan', 'hotel', 'milenium', 'jakarta', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -2595,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22660</v>
+        <v>30902</v>
       </c>
       <c r="C61" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2612,17 +2912,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'bersama', 'menteri, luar, negeri', 'ri', 'retno', 'marsudi', 'bersilaturahmi', 'dengan', 'majelis', 'ulama', 'indonesia', 'di', 'kantor', 'majelis, ulama, indonesia', 'selasa', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['jk', 'menlu', 'ri', 'retno', 'marsudi', 'bersilaturrahmi', 'majelis', 'ulama', 'indonesia', 'kantor', 'mui', 'selasa', 'https']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['jk', 'menlu', 'ri', 'retno', 'marsudi', 'bersilaturrahmi', 'majelis', 'ulama', 'indonesia', 'kantor', 'mui', 'selasa', 'https']</t>
+          <t>['menteri, luar, negeri', 'ri', 'retno', 'marsudi', 'bersilaturahmi', 'majelis', 'ulama', 'indonesia', 'kantor', 'majelis, ulama, indonesia', 'selasa', 'hypertext, transfer, protocol, over, secure, socket, layer']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['menteri luar negeri', 'ri', 'retno', 'marsudi', 'silaturahmi', 'majelis', 'ulama', 'indonesia', 'kantor', 'majelis ulama indonesia', 'selasa', 'hypertext transfer protocol over secure socket layer']</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22661</v>
+        <v>30903</v>
       </c>
       <c r="C62" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2648,17 +2953,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'pidato', 'penganugerahan', 'gelar', 'dhc', 'di', 'hiroshima', 'universitas', 'rabu', 'perdamaian', 'menjadi', 'syarat', 'bagi', 'kemajuan']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['jk', 'pidato', 'penganugerahan', 'gelar', 'dhc', 'hiroshima', 'university', 'rabu', 'perdamaian', 'syarat', 'kemajuan']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['jk', 'pidato', 'anugerah', 'gelar', 'dhc', 'hiroshima', 'university', 'rabu', 'damai', 'syarat', 'maju']</t>
+          <t>['pidato', 'penganugerahan', 'gelar', 'dhc', 'hiroshima', 'universitas', 'rabu', 'perdamaian', 'syarat', 'kemajuan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['pidato', 'anugerah', 'gelar', 'dhc', 'hiroshima', 'universitas', 'rabu', 'damai', 'syarat', 'maju']</t>
         </is>
       </c>
     </row>
@@ -2667,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22662</v>
+        <v>30904</v>
       </c>
       <c r="C63" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2684,17 +2994,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'berbincang', 'bincang', 'dengan', 'sebelum', 'ke', 'osaka', 'jepang', 'dari', 'bandara', 'hpk', 'senin']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['jk', 'berbincang', 'bincang', 'osaka', 'jepang', 'bandara', 'hpk', 'senin']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['jk', 'bincang', 'bincang', 'osaka', 'jepang', 'bandara', 'hpk', 'senin']</t>
+          <t>['berbincang', 'bincang', 'osaka', 'jepang', 'bandara', 'hpk', 'senin']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['bincang', 'bincang', 'osaka', 'jepang', 'bandara', 'hpk', 'senin']</t>
         </is>
       </c>
     </row>
@@ -2703,10 +3018,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22663</v>
+        <v>30905</v>
       </c>
       <c r="C64" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2720,17 +3035,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'terima', 'kasih', 'untuk', 'wakil, presiden', 'jika', 'dan', 'para', 'tokohnarasumber', 'lain', 'yang', 'hadir', 'dalam', 'acara', 'diskusi', 'live', 'tahun', 'tvone']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['terima', 'kasih', 'wapres', 'jk', 'tokohnarasumber', 'hadir', 'acara', 'diskusi', 'live', 'tvone']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'wapres', 'jk', 'tokohnarasumber', 'hadir', 'acara', 'diskusi', 'live', 'tvone']</t>
+          <t>['terima', 'kasih', 'wakil, presiden', 'tokohnarasumber', 'hadir', 'acara', 'diskusi', 'live', 'tvone']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'wakil presiden', 'tokohnarasumber', 'hadir', 'acara', 'diskusi', 'live', 'tvone']</t>
         </is>
       </c>
     </row>
@@ -2739,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22664</v>
+        <v>30906</v>
       </c>
       <c r="C65" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2756,17 +3076,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rt', 'asalamualaikum', 'alaikum', 'mari', 'makmurkan', 'dan', 'dimakmurkan', 'mesjid', 'unduh', 'app', 'masjid', 'cc', 'jika']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['assalamu', 'alaikum', 'mari', 'makmurkan', 'dimakmurkan', 'mesjid', 'download', 'app', 'masjid', 'cc', 'jk']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['assalamu', 'alaikum', 'mari', 'makmur', 'makmur', 'mesjid', 'download', 'app', 'masjid', 'cc', 'jk']</t>
+          <t>['asalamualaikum', 'alaikum', 'mari', 'makmurkan', 'dimakmurkan', 'mesjid', 'unduh', 'app', 'masjid', 'cc']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['asalamualaikum', 'alaikum', 'mari', 'makmur', 'makmur', 'mesjid', 'unduh', 'app', 'masjid', 'cc']</t>
         </is>
       </c>
     </row>
@@ -2775,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22665</v>
+        <v>30907</v>
       </c>
       <c r="C66" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2792,17 +3117,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'indonesia', 'ketua, umum', 'indonesia', 'bersama', 'wakil, presiden', 'jika', 'dalam', 'acr', 'penganugerahan', 'spesial', 'leadership', 'award', 'kepada', 'wakil, presiden', 'ri', 'dari']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['indonesia', 'ketum', 'indonesia', 'wapres', 'jk', 'dlm', 'acr', 'penganugerahan', 'special', 'leadership', 'award', 'wapres', 'ri']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['indonesia', 'tum', 'indonesia', 'wapres', 'jk', 'dlm', 'acr', 'anugerah', 'special', 'leadership', 'award', 'wapres', 'ri']</t>
+          <t>['indonesia', 'ketua, umum', 'indonesia', 'wakil, presiden', 'acr', 'penganugerahan', 'spesial', 'leadership', 'award', 'wakil, presiden', 'ri']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['indonesia', 'ketua umum', 'indonesia', 'wakil presiden', 'acr', 'anugerah', 'spesial', 'leadership', 'award', 'wakil presiden', 'ri']</t>
         </is>
       </c>
     </row>
@@ -2811,10 +3141,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22666</v>
+        <v>30908</v>
       </c>
       <c r="C67" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2828,17 +3158,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'pagi', 'ini', 'mampir', 'ke', 'rumah', 'bapak', 'jusuf', 'kalla', 'di', 'jalan', 'diponegoro', 'karena', 'hari', 'ini', 'adalah', 'miladnya', 'ibu', 'mufidah', 'istri', 'jika']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['pagi', 'mampir', 'rumah', 'bp', 'jusuf', 'kalla', 'jl', 'diponegoro', 'adlh', 'miladnya', 'mufidah', 'istri', 'jk']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['pagi', 'mampir', 'rumah', 'bp', 'jusuf', 'kalla', 'jl', 'diponegoro', 'adlh', 'milad', 'mufidah', 'istri', 'jk']</t>
+          <t>['pagi', 'mampir', 'rumah', 'jusuf', 'kalla', 'jalan', 'diponegoro', 'miladnya', 'mufidah', 'istri']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['pagi', 'mampir', 'rumah', 'jusuf', 'kalla', 'jalan', 'diponegoro', 'milad', 'mufidah', 'istri']</t>
         </is>
       </c>
     </row>
@@ -2847,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22667</v>
+        <v>30909</v>
       </c>
       <c r="C68" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2864,17 +3199,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'presiden', 'ri', 'jika', 'makan', 'siang', 'bersama', 'bahas', 'ekonomi', 'hingga', 'selengkapnya', 'di']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['presiden', 'ri', 'jk', 'makan', 'siang', 'bahas', 'ekonomi', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['presiden', 'ri', 'jk', 'makan', 'siang', 'bahas', 'ekonomi', 'lengkap']</t>
+          <t>['presiden', 'ri', 'makan', 'siang', 'bahas', 'ekonomi', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['presiden', 'ri', 'makan', 'siang', 'bahas', 'ekonomi', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -2883,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22668</v>
+        <v>30910</v>
       </c>
       <c r="C69" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2900,17 +3240,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['rt', 'pembangunan', 'infrastruktur', 'yang', 'menjadi', 'program', 'kerja', 'presiden', 'dan', 'ri', 'jika', 'erat', 'kaitannya', 'dengan', 'pemanfaa']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['pembangunan', 'infrastruktur', 'program', 'kerja', 'presiden', 'ri', 'jk', 'erat', 'kaitannya', 'pemanfaa']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['bangun', 'infrastruktur', 'program', 'kerja', 'presiden', 'ri', 'jk', 'erat', 'kait', 'pemanfaa']</t>
+          <t>['pembangunan', 'infrastruktur', 'program', 'kerja', 'presiden', 'ri', 'erat', 'kaitannya', 'pemanfaa']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bangun', 'infrastruktur', 'program', 'kerja', 'presiden', 'ri', 'erat', 'kait', 'pemanfaa']</t>
         </is>
       </c>
     </row>
@@ -2919,10 +3264,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22669</v>
+        <v>30911</v>
       </c>
       <c r="C70" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2936,17 +3281,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'senin', 'sore', 'februari', 'presiden', 'bersama', 'ri', 'jika', 'dan', 'jajaran', 'terkait', 'kembali', 'membahas', 'tentang', 'imple']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['senin', 'sore', 'februari', 'presiden', 'ri', 'jk', 'jajaran', 'terkait', 'membahas', 'imple']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['senin', 'sore', 'februari', 'presiden', 'ri', 'jk', 'jajar', 'kait', 'bahas', 'imple']</t>
+          <t>['senin', 'sore', 'februari', 'presiden', 'ri', 'jajaran', 'terkait', 'membahas', 'imple']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['senin', 'sore', 'februari', 'presiden', 'ri', 'jajar', 'kait', 'bahas', 'imple']</t>
         </is>
       </c>
     </row>
@@ -2955,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22670</v>
+        <v>30912</v>
       </c>
       <c r="C71" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2972,17 +3322,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['rt', 'lapangan', 'tenis', 'yang', 'baru', 'sudah', 'siap', 'menyambut', 'asian', 'games', 'ini', 'tempat', 'ketujuh', 'dari', 'tempat', 'yang', 'direnovasi', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['lapangan', 'tenis', 'menyambut', 'asian', 'games', 'venue', 'ketujuh', 'venue', 'direnovasi', 'jkw']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['lapang', 'tenis', 'sambut', 'asi', 'games', 'venue', 'tujuh', 'venue', 'renovasi', 'jkw']</t>
+          <t>['lapangan', 'tenis', 'menyambut', 'asian', 'games', 'ketujuh', 'direnovasi', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['lapang', 'tenis', 'sambut', 'asi', 'games', 'tujuh', 'renovasi', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -2991,10 +3346,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22671</v>
+        <v>30913</v>
       </c>
       <c r="C72" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3008,17 +3363,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'masjid', 'kalau', 'ceramahnya', 'tidak', 'memihak', 'hanya', 'bicara', 'tentang', 'ayat', 'alquran', 'dan', 'hadis', 'sebagai', 'pengetahuan', 'tidak', 'masalah', 'ujar']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['masjid', 'ceramahnya', 'bicara', 'ayat', 'quran', 'hadits', 'pengetahuan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['masjid', 'ceramah', 'bicara', 'ayat', 'quran', 'hadits', 'tahu']</t>
+          <t>['masjid', 'ceramahnya', 'bicara', 'ayat', 'alquran', 'hadis', 'pengetahuan']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['masjid', 'ceramah', 'bicara', 'ayat', 'alquran', 'hadis', 'tahu']</t>
         </is>
       </c>
     </row>
@@ -3027,10 +3387,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22672</v>
+        <v>30914</v>
       </c>
       <c r="C73" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3044,15 +3404,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'umara', 'dan', 'ulama', 'bersama', 'sejahterakan', 'umat']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['umara', 'ulama', 'sejahterakan', 'umat']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['umara', 'ulama', 'sejahtera', 'umat']</t>
         </is>
@@ -3063,10 +3428,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22673</v>
+        <v>30915</v>
       </c>
       <c r="C74" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3080,17 +3445,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['rt', 'cc', 'masjid', 'sugiarto', 'jika']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['cc', 'masjid', 'sugiarto', 'jk']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['cc', 'masjid', 'sugiarto', 'jk']</t>
+          <t>['cc', 'masjid', 'sugiarto']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['cc', 'masjid', 'sugiarto']</t>
         </is>
       </c>
     </row>
@@ -3099,10 +3469,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22674</v>
+        <v>30916</v>
       </c>
       <c r="C75" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3116,17 +3486,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['rt', 'pak', 'jika', 'menjamu', 'uztads', 'somad', 'di', 'kediamannya', 'usai', 'salat', 'subuh', 'berjemaah', 'minggu', 'umat', 'islam', 'sesungguhnya', 'bersaudara']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['jk', 'menjamu', 'uztads', 'somad', 'kediamannya', 'sholat', 'subuh', 'berjamaah', 'minggu', 'umat', 'islam', 'sesungguhnya', 'bersaudara']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['jk', 'jamu', 'uztads', 'somad', 'diam', 'sholat', 'subuh', 'jamaah', 'minggu', 'umat', 'islam', 'sungguh', 'saudara']</t>
+          <t>['menjamu', 'uztads', 'somad', 'kediamannya', 'salat', 'subuh', 'berjemaah', 'minggu', 'umat', 'islam', 'sesungguhnya', 'bersaudara']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['jamu', 'uztads', 'somad', 'diam', 'salat', 'subuh', 'jemaah', 'minggu', 'umat', 'islam', 'sungguh', 'saudara']</t>
         </is>
       </c>
     </row>
@@ -3135,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22675</v>
+        <v>30917</v>
       </c>
       <c r="C76" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3152,17 +3527,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['rt', 'presiden', 'saat', 'ini', 'mengunjungi', 'pengungsi', 'rohingya', 'di', 'coxs', 'bazar', 'banglades', 'dan', 'memberikan', 'bantuan', 'kemanusiaan', 'ata']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['presiden', 'mengunjungi', 'pengungsi', 'rohingnya', 'coxs', 'bazar', 'banglades', 'bantuan', 'kemanusiaan', 'ata']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['presiden', 'unjung', 'ungsi', 'rohingnya', 'coxs', 'bazar', 'banglades', 'bantu', 'manusia', 'ata']</t>
+          <t>['presiden', 'mengunjungi', 'pengungsi', 'rohingya', 'coxs', 'bazar', 'banglades', 'bantuan', 'kemanusiaan', 'ata']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['presiden', 'unjung', 'ungsi', 'rohingya', 'coxs', 'bazar', 'banglades', 'bantu', 'manusia', 'ata']</t>
         </is>
       </c>
     </row>
@@ -3171,10 +3551,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22676</v>
+        <v>30918</v>
       </c>
       <c r="C77" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3188,17 +3568,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'ikut', 'menyaksikan', 'pertandingan', 'final', 'streaming']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['jk', 'menyaksikan', 'pertandingan', 'final', 'streaming']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['jk', 'saksi', 'tanding', 'final', 'streaming']</t>
+          <t>['menyaksikan', 'pertandingan', 'final', 'streaming']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['saksi', 'tanding', 'final', 'streaming']</t>
         </is>
       </c>
     </row>
@@ -3207,10 +3592,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22677</v>
+        <v>30919</v>
       </c>
       <c r="C78" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3224,17 +3609,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['rt', 'hari', 'ini', 'januari', 'anak', 'lanangku', 'hanindhito', 'dhito', 'menikah', 'di', 'rumah', 'dengan', 'pilihannya', 'anisa', 'chica', 'pacaran', 'sejak', 'sama']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['januari', 'anak', 'lanangku', 'hanindhito', 'dhito', 'menikah', 'rumah', 'pilihannya', 'anisa', 'chica', 'pacaran', 'sma']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['januari', 'anak', 'lanang', 'hanindhito', 'dhito', 'meni', 'rumah', 'pilih', 'anisa', 'chica', 'pacar', 'sma']</t>
+          <t>['januari', 'anak', 'lanangku', 'hanindhito', 'dhito', 'menikah', 'rumah', 'pilihannya', 'anisa', 'chica', 'pacaran']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['januari', 'anak', 'lanang', 'hanindhito', 'dhito', 'meni', 'rumah', 'pilih', 'anisa', 'chica', 'pacar']</t>
         </is>
       </c>
     </row>
@@ -3243,10 +3633,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22678</v>
+        <v>30920</v>
       </c>
       <c r="C79" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3260,17 +3650,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'siang', 'ini', 'menpora', 'nahrawi', 'menghadiri', 'acara', 'santap', 'siang', 'bersama', 'wakil', 'presiden', 'ri', 'jika', 'yang', 'bertempat']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['ri', 'siang', 'menpora', 'nahrawi', 'menghadiri', 'acara', 'santap', 'siang', 'wakil', 'presiden', 'ri', 'jk', 'bertempat']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ri', 'siang', 'menpora', 'nahrawi', 'hadir', 'acara', 'santap', 'siang', 'wakil', 'presiden', 'ri', 'jk', 'tempat']</t>
+          <t>['ri', 'siang', 'menpora', 'nahrawi', 'menghadiri', 'acara', 'santap', 'siang', 'wakil', 'presiden', 'ri', 'bertempat']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ri', 'siang', 'menpora', 'nahrawi', 'hadir', 'acara', 'santap', 'siang', 'wakil', 'presiden', 'ri', 'tempat']</t>
         </is>
       </c>
     </row>
@@ -3279,10 +3674,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22679</v>
+        <v>30921</v>
       </c>
       <c r="C80" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3296,17 +3691,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['rt', 'indonesia', 'punya', 'undang, undang', 'keterbukaan', 'informasi', 'publik', 'di', 'mana', 'pemerintah', 'diwajibkan', 'membuka', 'informasinya', 'kepada', 'publik', 'itu', 'juga']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['indonesia', 'uu', 'keterbukaan', 'informasi', 'publik', 'pemerintah', 'diwajibkan', 'membuka', 'informasinya', 'publik', 'jug']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['indonesia', 'uu', 'buka', 'informasi', 'publik', 'perintah', 'wajib', 'buka', 'informasi', 'publik', 'jug']</t>
+          <t>['indonesia', 'undang, undang', 'keterbukaan', 'informasi', 'publik', 'pemerintah', 'diwajibkan', 'membuka', 'informasinya', 'publik']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['indonesia', 'undang undang', 'buka', 'informasi', 'publik', 'perintah', 'wajib', 'buka', 'informasi', 'publik']</t>
         </is>
       </c>
     </row>
@@ -3315,10 +3715,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22680</v>
+        <v>30922</v>
       </c>
       <c r="C81" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3332,17 +3732,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['rt', 'pembukaan', 'asia', 'pacific', 'pemimpin', 'forum', 'on', 'open', 'government', 'oleh', 'ri', 'jika', 'didampingi', 'menteri', 'ppnkepala', 'bappena']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['pembukaan', 'asia', 'pacific', 'leaders', 'forum', 'on', 'open', 'government', 'ri', 'jk', 'didampingi', 'menteri', 'ppnkepala', 'bappena']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['buka', 'asia', 'pacific', 'leaders', 'forum', 'on', 'open', 'government', 'ri', 'jk', 'damping', 'menteri', 'ppnkepala', 'bappena']</t>
+          <t>['pembukaan', 'asia', 'pacific', 'pemimpin', 'forum', 'on', 'open', 'government', 'ri', 'didampingi', 'menteri', 'ppnkepala', 'bappena']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['buka', 'asia', 'pacific', 'pimpin', 'forum', 'on', 'open', 'government', 'ri', 'damping', 'menteri', 'ppnkepala', 'bappena']</t>
         </is>
       </c>
     </row>
@@ -3351,10 +3756,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22681</v>
+        <v>30923</v>
       </c>
       <c r="C82" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3368,17 +3773,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['rt', 'waktu, indonesia, bagian, barat', 'wakil, presiden', 'jika', 'melayat', 'mendiang', 'am', 'fatwa', 'foto', 'tim', 'media', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['wib', 'wapres', 'jk', 'melayat', 'mendiang', 'am', 'fatwa', 'foto', 'tim', 'media', 'wapres']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['wib', 'wapres', 'jk', 'layat', 'mendiang', 'am', 'fatwa', 'foto', 'tim', 'media', 'wapres']</t>
+          <t>['waktu, indonesia, bagian, barat', 'wakil, presiden', 'melayat', 'mendiang', 'am', 'fatwa', 'foto', 'tim', 'media', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['waktu indonesia bagi barat', 'wakil presiden', 'layat', 'mendiang', 'am', 'fatwa', 'foto', 'tim', 'media', 'wakil presiden']</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3797,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22682</v>
+        <v>30924</v>
       </c>
       <c r="C83" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3404,17 +3814,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['kita', 'berharap', 'pilihan, kepala, daerah', 'yang', 'damai', 'dan', 'membawa', 'keberkahan', 'untuk', 'bangsa', 'iniaamiin']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['berharap', 'pilkada', 'damai', 'membawa', 'keberkahan', 'bangsa', 'iniaamiin']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['harap', 'pilkada', 'damai', 'bawa', 'berkah', 'bangsa', 'iniaamiin']</t>
+          <t>['berharap', 'pilihan, kepala, daerah', 'damai', 'membawa', 'keberkahan', 'bangsa', 'iniaamiin']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['harap', 'pilih kepala daerah', 'damai', 'bawa', 'berkah', 'bangsa', 'iniaamiin']</t>
         </is>
       </c>
     </row>
@@ -3423,10 +3838,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22683</v>
+        <v>30925</v>
       </c>
       <c r="C84" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
@@ -3436,15 +3851,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3455,10 +3875,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22684</v>
+        <v>30926</v>
       </c>
       <c r="C85" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3472,15 +3892,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['mendampingi', 'presiden', 'jokowi', 'ratas', 'tentang', 'integrasi', 'perencanaan', 'dan', 'penganggaran', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['mendampingi', 'presiden', 'jokowi', 'ratas', 'integrasi', 'perencanaan', 'penganggaran']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['damping', 'presiden', 'jokowi', 'ratas', 'integrasi', 'rencana', 'anggar']</t>
         </is>
@@ -3491,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22685</v>
+        <v>30927</v>
       </c>
       <c r="C86" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3508,17 +3933,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'wakil, presiden', 'jika', 'mengadakan', 'rapat', 'terbatas', 'perihal', 'tindak', 'lanjut', 'kunker', 'wakil, presiden', 'ke', 'tana', 'toraja', 'tanggal', 'januari']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['ri', 'wapres', 'jk', 'mengadakan', 'rapat', 'terbatas', 'perihal', 'tindak', 'kunker', 'wapres', 'tana', 'toraja', 'tanggal', 'januari']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['ri', 'wapres', 'jk', 'ada', 'rapat', 'batas', 'perihal', 'tindak', 'kunker', 'wapres', 'tana', 'toraja', 'tanggal', 'januari']</t>
+          <t>['ri', 'wakil, presiden', 'mengadakan', 'rapat', 'terbatas', 'perihal', 'tindak', 'kunker', 'wakil, presiden', 'tana', 'toraja', 'tanggal', 'januari']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['ri', 'wakil presiden', 'ada', 'rapat', 'batas', 'perihal', 'tindak', 'kunker', 'wakil presiden', 'tana', 'toraja', 'tanggal', 'januari']</t>
         </is>
       </c>
     </row>
@@ -3527,10 +3957,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22686</v>
+        <v>30928</v>
       </c>
       <c r="C87" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3544,15 +3974,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'bagi', 'yang', 'merayakansemoga', 'membawa', 'damai', 'dan', 'berkah', 'bagi', 'bangsa', 'kitaaamiin']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['selamat', 'imlek', 'merayakansemoga', 'membawa', 'damai', 'berkah', 'bangsa', 'kitaaamiin']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['selamat', 'imlek', 'merayakansemoga', 'bawa', 'damai', 'berkah', 'bangsa', 'kitaaamiin']</t>
         </is>
@@ -3563,10 +3998,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22687</v>
+        <v>30929</v>
       </c>
       <c r="C88" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3580,17 +4015,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'jika', 'meminta', 'agar', 'overpass', 'ini', 'diberi', 'lampu', 'berwarna', 'warni', 'seperti', 'pelangi']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['wapres', 'jk', 'overpass', 'lampu', 'berwarna', 'warni', 'pelangi']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['wapres', 'jk', 'overpass', 'lampu', 'warna', 'warni', 'pelangi']</t>
+          <t>['wakil, presiden', 'overpass', 'lampu', 'berwarna', 'warni', 'pelangi']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'overpass', 'lampu', 'warna', 'warni', 'pelangi']</t>
         </is>
       </c>
     </row>
@@ -3599,10 +4039,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22688</v>
+        <v>30930</v>
       </c>
       <c r="C89" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3616,17 +4056,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'jika', 'sebenarnya', 'ini', 'teknologi', 'lamaarmco', 'yang', 'dimodernisari', 'artinya', 'bagaimana', 'lengkungan', 'lebih', 'besar', 'dan', 'menahan']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['wapres', 'jk', 'teknologi', 'lamaarmco', 'dimodernisari', 'lengkungan', 'nahan']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['wapres', 'jk', 'teknologi', 'lamaarmco', 'dimodernisari', 'lengkung', 'nahan']</t>
+          <t>['wakil, presiden', 'teknologi', 'lamaarmco', 'dimodernisari', 'lengkungan', 'menahan']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'teknologi', 'lamaarmco', 'dimodernisari', 'lengkung', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -3635,10 +4080,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22689</v>
+        <v>30931</v>
       </c>
       <c r="C90" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3652,17 +4097,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'overpass', 'antapani', 'yang', 'diberi', 'nama', 'pelangi', 'antapani', 'diresmikan', 'oleh', 'wakil', 'presiden', 'ri', 'jusuf', 'kalla', 'jika']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['overpass', 'antapani', 'nama', 'pelangi', 'antapani', 'diresmikan', 'wakil', 'presiden', 'ri', 'jusuf', 'kalla', 'jk']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['overpass', 'antapani', 'nama', 'pelangi', 'antapani', 'resmi', 'wakil', 'presiden', 'ri', 'jusuf', 'kalla', 'jk']</t>
+          <t>['overpass', 'antapani', 'nama', 'pelangi', 'antapani', 'diresmikan', 'wakil', 'presiden', 'ri', 'jusuf', 'kalla']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['overpass', 'antapani', 'nama', 'pelangi', 'antapani', 'resmi', 'wakil', 'presiden', 'ri', 'jusuf', 'kalla']</t>
         </is>
       </c>
     </row>
@@ -3671,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22690</v>
+        <v>30932</v>
       </c>
       <c r="C91" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3688,17 +4138,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'ibu', 'megawati', 'soekarno, putri', 'ke', 'semoga', 'panjang', 'umur', 'sehat', 'selalu', 'dan', 'terus', 'mengabdi', 'untuk', 'negara, kesatuan, republik, indonesia', 'merdeka']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['selamat', 'ulang', 'megawati', 'soekarnoputri', 'semoga', 'umur', 'sehat', 'mengabdi', 'nkri', 'merdeka']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'megawati', 'soekarnoputri', 'moga', 'umur', 'sehat', 'abdi', 'nkri', 'merdeka']</t>
+          <t>['selamat', 'ulang', 'megawati', 'soekarno, putri', 'semoga', 'umur', 'sehat', 'mengabdi', 'negara, kesatuan, republik, indonesia', 'merdeka']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'megawati', 'soekarno putri', 'moga', 'umur', 'sehat', 'abdi', 'negara satu republik indonesia', 'merdeka']</t>
         </is>
       </c>
     </row>
@@ -3707,10 +4162,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22691</v>
+        <v>30933</v>
       </c>
       <c r="C92" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3724,17 +4179,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'wakil, presiden', 'jika', 'didampingi', 'seskab', 'meresmikan', 'masjid', 'agung', 'arridwan', 'amp', 'rumah, susun, sederhana, sewa', 'pondok', 'modern', 'darul', 'hikmah', 'betul']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['wapres', 'jk', 'didampingi', 'seskab', 'meresmikan', 'masjid', 'agung', 'arridwan', 'rusunawa', 'pondok', 'modern', 'darul', 'hikmah', 'tul']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['wapres', 'jk', 'damping', 'seskab', 'resmi', 'masjid', 'agung', 'arridwan', 'rusunawa', 'pondok', 'modern', 'darul', 'hikmah', 'tul']</t>
+          <t>['wakil, presiden', 'didampingi', 'seskab', 'meresmikan', 'masjid', 'agung', 'arridwan', 'rumah, susun, sederhana, sewa', 'pondok', 'modern', 'darul', 'hikmah']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'damping', 'seskab', 'resmi', 'masjid', 'agung', 'arridwan', 'rumah susun sederhana sewa', 'pondok', 'modern', 'darul', 'hikmah']</t>
         </is>
       </c>
     </row>
@@ -3743,10 +4203,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22692</v>
+        <v>30934</v>
       </c>
       <c r="C93" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3760,15 +4220,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt', 'cerdas', 'bermedia', 'bijak', 'memilih', 'informasi', 'jangan', 'asal', 'klik', 'berita', 'yang', 'didapat']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['cerdas', 'bermedia', 'bijak', 'memilih', 'informasi', 'klik', 'berita']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['cerdas', 'media', 'bijak', 'pilih', 'informasi', 'klik', 'berita']</t>
         </is>
@@ -3779,10 +4244,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22693</v>
+        <v>30935</v>
       </c>
       <c r="C94" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3796,17 +4261,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'atas', 'musibah', 'km', 'zahro', 'ekspresssemoga', 'yang', 'wafat', 'diberi', 'tempat', 'terbaik', 'disisinya', 'amp', 'yang', 'masih', 'dalam', 'pencarian', 'segera', 'ditemukan']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['berduka', 'cita', 'musibah', 'km', 'zahro', 'ekspresssemoga', 'wafat', 'terbaik', 'disisinya', 'msh', 'dlm', 'pencarian', 'ditemukan']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'musibah', 'km', 'zahro', 'ekspresssemoga', 'wafat', 'baik', 'sis', 'msh', 'dlm', 'cari', 'temu']</t>
+          <t>['berduka', 'cita', 'musibah', 'km', 'zahro', 'ekspresssemoga', 'wafat', 'terbaik', 'disisinya', 'pencarian', 'ditemukan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'musibah', 'km', 'zahro', 'ekspresssemoga', 'wafat', 'baik', 'sis', 'cari', 'temu']</t>
         </is>
       </c>
     </row>
@@ -3815,10 +4285,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22694</v>
+        <v>30936</v>
       </c>
       <c r="C95" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3828,15 +4298,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3847,10 +4322,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22695</v>
+        <v>30937</v>
       </c>
       <c r="C96" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3864,17 +4339,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['rt', 'selamat', 'tahun', 'baru', 'juga', 'jika', 'salam', 'hormat', 'untuk', 'ibu', 'dan', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['selamat', 'thn', 'jk', 'salam', 'hormat', 'keluarga']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['selamat', 'thn', 'jk', 'salam', 'hormat', 'keluarga']</t>
+          <t>['selamat', 'salam', 'hormat', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['selamat', 'salam', 'hormat', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -3883,10 +4363,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22696</v>
+        <v>30938</v>
       </c>
       <c r="C97" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3900,17 +4380,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'liburan', 'bersama', 'keluarga', 'tampak', 'siring', 'bali', 'sehat', 'dan', 'bugar', 'selalu', 'pak']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['jk', 'liburan', 'keluarga', 'siring', 'bali', 'sehat', 'bugar']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['jk', 'libur', 'keluarga', 'siring', 'bal', 'sehat', 'bugar']</t>
+          <t>['liburan', 'keluarga', 'siring', 'bali', 'sehat', 'bugar']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['libur', 'keluarga', 'siring', 'bal', 'sehat', 'bugar']</t>
         </is>
       </c>
     </row>
@@ -3919,10 +4404,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22697</v>
+        <v>30939</v>
       </c>
       <c r="C98" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3936,17 +4421,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['rt', 'warga', 'kecamatan', 'di', 'kabupaten', 'magelang', 'mengalami', 'kekeringan', 'palang, merah, indonesia', 'bangun', 'bak', 'penampungan', 'air', 'bekerja, sama', 'dengan']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['warga', 'kecamatan', 'kab', 'magelang', 'mengalami', 'kekeringan', 'pmi', 'bangun', 'bak', 'penampungan', 'air', 'bekerjasama']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['warga', 'camat', 'kab', 'magelang', 'alami', 'kering', 'pmi', 'bangun', 'bak', 'tampung', 'air', 'bekerjasama']</t>
+          <t>['warga', 'kecamatan', 'kabupaten', 'magelang', 'mengalami', 'kekeringan', 'palang, merah, indonesia', 'bangun', 'bak', 'penampungan', 'air', 'bekerja, sama']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['warga', 'camat', 'kabupaten', 'magelang', 'alami', 'kering', 'palang merah indonesia', 'bangun', 'bak', 'tampung', 'air', 'kerja sama']</t>
         </is>
       </c>
     </row>
@@ -3955,10 +4445,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22698</v>
+        <v>30940</v>
       </c>
       <c r="C99" t="n">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3972,17 +4462,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['rt', 'jika', 'meminta', 'memperbaiki', 'infrastruktur', 'yang', 'rusak', 'surat, pemberitahuan, tahunan', 'daerah', 'aliran', 'sungai', 'jalan', 'jembatan', 'amp', 'jaringan', 'air', 'minum']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['jk', 'memperbaiki', 'infrastruktur', 'rusak', 'spt', 'daerah', 'aliran', 'sungai', 'jalan', 'jembatan', 'jaringan', 'air', 'minum']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['jk', 'baik', 'infrastruktur', 'rusak', 'spt', 'daerah', 'alir', 'sungai', 'jalan', 'jembatan', 'jaring', 'air', 'minum']</t>
+          <t>['memperbaiki', 'infrastruktur', 'rusak', 'surat, pemberitahuan, tahunan', 'daerah', 'aliran', 'sungai', 'jalan', 'jembatan', 'jaringan', 'air', 'minum']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['baik', 'infrastruktur', 'rusak', 'surat pemberitahuan tahun', 'daerah', 'alir', 'sungai', 'jalan', 'jembatan', 'jaring', 'air', 'minum']</t>
         </is>
       </c>
     </row>
